--- a/xlsx/维基媒体计划_intext.xlsx
+++ b/xlsx/维基媒体计划_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
   <si>
     <t>维基媒体计划</t>
   </si>
@@ -29,7 +29,7 @@
     <t>维基媒体基金会</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_维基媒体计划</t>
+    <t>政策_政策_维基百科_维基媒体计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wiki</t>
@@ -41,9 +41,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>維基媒體基金會</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1</t>
   </si>
   <si>
@@ -53,19 +50,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E7%87%9F%E5%88%A9%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>非營利組織</t>
+    <t>非营利组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>維基媒體運動</t>
+    <t>维基媒体运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>自由軟體</t>
+    <t>自由软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%86%85%E5%AE%B9</t>
@@ -77,13 +74,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%AB%99</t>
   </si>
   <si>
-    <t>網站</t>
+    <t>网站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E4%BD%9C%E5%85%B1%E7%94%A8%E6%8E%88%E6%AC%8A%E6%A2%9D%E6%AC%BE</t>
   </si>
   <si>
-    <t>創作共用授權條款</t>
+    <t>创作共用授权条款</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B8%E5%90%8C%E6%96%B9%E5%BC%8F%E5%85%B1%E4%BA%AB</t>
@@ -95,7 +92,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%97%E4%BD%9C%E6%AC%8A</t>
   </si>
   <si>
-    <t>著作權</t>
+    <t>着作权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Copyleft</t>
@@ -185,31 +182,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>維基百科列表</t>
+    <t>维基百科列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wiki%E7%B6%B2%E7%AB%99%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>Wiki網站列表</t>
+    <t>Wiki网站列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E7%A7%91%E6%9B%B8</t>
   </si>
   <si>
-    <t>維基教科書</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%AA%9E%E9%8C%84</t>
   </si>
   <si>
-    <t>維基語錄</t>
+    <t>维基语录</t>
   </si>
   <si>
     <t>https://zh.wikiquote.org/wiki/</t>
@@ -221,33 +212,21 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%87%E5%BA%AB</t>
   </si>
   <si>
-    <t>維基文庫</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%85%B1%E4%BA%AB%E8%B3%87%E6%BA%90</t>
   </si>
   <si>
-    <t>維基共享資源</t>
+    <t>维基共享资源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%89%A9%E7%A8%AE</t>
   </si>
   <si>
-    <t>維基物種</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>維基新聞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%B0%8E%E9%81%8A</t>
   </si>
   <si>
-    <t>維基導遊</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E7%BB%B4%E5%9F%BA</t>
   </si>
   <si>
@@ -257,7 +236,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9C%8B%E9%9A%9B%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>維基媒體國際會議</t>
+    <t>维基媒体国际会议</t>
   </si>
 </sst>
 </file>
@@ -715,7 +694,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
         <v>4</v>
@@ -741,10 +720,10 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
         <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -770,10 +749,10 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
         <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -799,10 +778,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -828,10 +807,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -857,10 +836,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -886,10 +865,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
@@ -915,10 +894,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>2</v>
@@ -944,10 +923,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
         <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
@@ -973,10 +952,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
         <v>23</v>
-      </c>
-      <c r="F13" t="s">
-        <v>24</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
@@ -1002,10 +981,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>25</v>
-      </c>
-      <c r="F14" t="s">
-        <v>26</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1031,10 +1010,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
         <v>27</v>
-      </c>
-      <c r="F15" t="s">
-        <v>28</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1060,10 +1039,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
         <v>29</v>
-      </c>
-      <c r="F16" t="s">
-        <v>30</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1089,10 +1068,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
         <v>31</v>
-      </c>
-      <c r="F17" t="s">
-        <v>32</v>
       </c>
       <c r="G17" t="n">
         <v>10</v>
@@ -1118,10 +1097,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
         <v>33</v>
-      </c>
-      <c r="F18" t="s">
-        <v>34</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1147,10 +1126,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
         <v>35</v>
-      </c>
-      <c r="F19" t="s">
-        <v>36</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1176,10 +1155,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
         <v>37</v>
-      </c>
-      <c r="F20" t="s">
-        <v>38</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1205,10 +1184,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
         <v>39</v>
-      </c>
-      <c r="F21" t="s">
-        <v>40</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1234,10 +1213,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
         <v>41</v>
-      </c>
-      <c r="F22" t="s">
-        <v>42</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1263,10 +1242,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
         <v>43</v>
-      </c>
-      <c r="F23" t="s">
-        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -1292,10 +1271,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
         <v>45</v>
-      </c>
-      <c r="F24" t="s">
-        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>3</v>
@@ -1321,10 +1300,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
         <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1350,10 +1329,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
         <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>4</v>
@@ -1379,10 +1358,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
         <v>51</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1408,10 +1387,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1437,10 +1416,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1466,10 +1445,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1495,10 +1474,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1524,10 +1503,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1553,10 +1532,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1582,10 +1561,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G34" t="n">
         <v>15</v>
@@ -1611,10 +1590,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1640,10 +1619,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1669,10 +1648,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1698,10 +1677,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1727,10 +1706,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1756,10 +1735,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G40" t="n">
         <v>3</v>
@@ -1785,10 +1764,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
